--- a/branches/master/StructureDefinition-MedRecordDispense.xlsx
+++ b/branches/master/StructureDefinition-MedRecordDispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$48</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$55</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="362">
   <si>
     <t>Path</t>
   </si>
@@ -312,33 +312,135 @@
     <t>MedicationDispense.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>treatmentPlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {event-basedOn}
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ORC in proximity to EVN segment</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.extension</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationDispense.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>MedicationDispense.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>MedicationDispense.modifierExtension</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -346,6 +448,9 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -435,38 +540,37 @@
     <t>MedicationDispense.statusReason[x]</t>
   </si>
   <si>
-    <t>CodeableConcept
-Reference(DetectedIssue)</t>
-  </si>
-  <si>
-    <t>Why a dispense was not performed</t>
-  </si>
-  <si>
-    <t>Indicates the reason why a dispense was not performed.</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>A code describing why a dispense was not performed.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
-  </si>
-  <si>
-    <t>Event.statusReason</t>
-  </si>
-  <si>
-    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="not done reason"].value</t>
-  </si>
-  <si>
-    <t>MedicationDispense.category</t>
-  </si>
-  <si>
     <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
+    <t>Why a dispense was not performed</t>
+  </si>
+  <si>
+    <t>Indicates the reason why a dispense was not performed.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>A code describing why a dispense was not performed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medicationdispense-status-reason</t>
+  </si>
+  <si>
+    <t>Event.statusReason</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=RSON]/target[classCode=OBS,moodCode=EVN, code="not done reason"].value</t>
+  </si>
+  <si>
+    <t>statusReasonCodeableConcept</t>
+  </si>
+  <si>
+    <t>MedicationDispense.category</t>
+  </si>
+  <si>
     <t>Type of medication dispense</t>
   </si>
   <si>
@@ -507,13 +611,6 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
     <t>Event.code</t>
   </si>
   <si>
@@ -627,25 +724,13 @@
     <t>MedicationDispense.performer.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationDispense.performer.extension</t>
   </si>
   <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -735,9 +820,6 @@
   </si>
   <si>
     <t>Maps to basedOn in Event logical model.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[moodCode=RQO]</t>
@@ -1215,7 +1297,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN48"/>
+  <dimension ref="A1:AN55"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1225,7 +1307,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="48.12109375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="29.640625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1251,7 +1333,7 @@
     <col min="25" max="25" width="71.296875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="46.83984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -2188,7 +2270,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -2207,17 +2289,15 @@
         <v>41</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>99</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -2254,16 +2334,14 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>100</v>
@@ -2284,7 +2362,7 @@
         <v>41</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>41</v>
@@ -2296,45 +2374,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="B10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N10" t="s" s="2">
         <v>105</v>
       </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>41</v>
       </c>
@@ -2382,7 +2458,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2391,16 +2467,16 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
@@ -2409,12 +2485,12 @@
         <v>41</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>41</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2425,7 +2501,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>41</v>
@@ -2437,17 +2513,15 @@
         <v>41</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>111</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>41</v>
@@ -2496,31 +2570,31 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>112</v>
+        <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="s" s="2">
         <v>41</v>
@@ -2528,7 +2602,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2539,7 +2613,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>41</v>
@@ -2551,13 +2625,13 @@
         <v>41</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2596,19 +2670,19 @@
         <v>41</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>41</v>
+        <v>99</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2620,13 +2694,13 @@
         <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>120</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>121</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>41</v>
@@ -2640,7 +2714,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2657,22 +2731,22 @@
         <v>41</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2680,7 +2754,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>41</v>
@@ -2698,13 +2772,13 @@
         <v>41</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>126</v>
+        <v>41</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>127</v>
+        <v>41</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2722,7 +2796,7 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>50</v>
@@ -2734,19 +2808,19 @@
         <v>41</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>130</v>
+        <v>93</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>131</v>
+        <v>41</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>132</v>
+        <v>41</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>41</v>
@@ -2754,7 +2828,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2762,7 +2836,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
@@ -2777,13 +2851,13 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2810,31 +2884,29 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
+        <v>41</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>139</v>
+        <v>41</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2849,10 +2921,10 @@
         <v>62</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>140</v>
+        <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -2866,15 +2938,17 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="C15" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>50</v>
@@ -2889,17 +2963,15 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2924,13 +2996,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -2948,7 +3020,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -2966,7 +3038,7 @@
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>149</v>
+        <v>93</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -2980,41 +3052,43 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>151</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="N16" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
       </c>
@@ -3038,65 +3112,65 @@
         <v>41</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AB16" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>158</v>
+        <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>160</v>
+        <v>93</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>163</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>164</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
         <v>41</v>
       </c>
@@ -3105,7 +3179,7 @@
         <v>42</v>
       </c>
       <c r="F17" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
         <v>51</v>
@@ -3114,19 +3188,19 @@
         <v>41</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="K17" t="s" s="2">
-        <v>152</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
@@ -3152,13 +3226,13 @@
         <v>41</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>155</v>
+        <v>41</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>156</v>
+        <v>41</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>41</v>
@@ -3176,13 +3250,13 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH17" t="s" s="2">
         <v>41</v>
@@ -3191,28 +3265,26 @@
         <v>62</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>163</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>150</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>41</v>
       </c>
@@ -3221,29 +3293,27 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>154</v>
-      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -3292,13 +3362,13 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>41</v>
@@ -3307,24 +3377,24 @@
         <v>62</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>163</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3332,7 +3402,7 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>50</v>
@@ -3341,22 +3411,22 @@
         <v>51</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>168</v>
+        <v>70</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3382,13 +3452,13 @@
         <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>41</v>
+        <v>160</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
@@ -3406,10 +3476,10 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>50</v>
@@ -3421,24 +3491,24 @@
         <v>62</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>41</v>
+        <v>165</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3461,13 +3531,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3494,31 +3564,29 @@
         <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AB20" s="2"/>
       <c r="AC20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
@@ -3533,10 +3601,10 @@
         <v>62</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -3548,11 +3616,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="B21" s="2"/>
+        <v>166</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>175</v>
+      </c>
       <c r="C21" t="s" s="2">
         <v>41</v>
       </c>
@@ -3561,10 +3631,10 @@
         <v>42</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -3573,13 +3643,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3606,13 +3676,13 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>41</v>
+        <v>171</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>41</v>
+        <v>172</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
@@ -3630,13 +3700,13 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>41</v>
@@ -3645,13 +3715,13 @@
         <v>62</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>41</v>
+        <v>173</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>187</v>
+        <v>41</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>41</v>
@@ -3662,7 +3732,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3673,7 +3743,7 @@
         <v>42</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
         <v>41</v>
@@ -3685,15 +3755,17 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="M22" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="M22" t="s" s="2">
+        <v>179</v>
+      </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -3718,13 +3790,13 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>41</v>
+        <v>180</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>41</v>
+        <v>181</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
@@ -3742,13 +3814,13 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>41</v>
@@ -3757,10 +3829,10 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -3774,7 +3846,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3782,7 +3854,7 @@
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
         <v>50</v>
@@ -3794,18 +3866,20 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>52</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M23" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="M23" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3830,34 +3904,32 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB23" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>128</v>
+      </c>
+      <c r="AB23" s="2"/>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>197</v>
+        <v>183</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3866,59 +3938,61 @@
         <v>41</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>41</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="B24" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="C24" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>97</v>
+        <v>185</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>200</v>
+        <v>186</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
@@ -3944,13 +4018,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>41</v>
+        <v>188</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -3968,75 +4042,75 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>41</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>202</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>183</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="C25" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>96</v>
+        <v>197</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>205</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4084,39 +4158,39 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>41</v>
+        <v>190</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>93</v>
+        <v>191</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>41</v>
+        <v>192</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>41</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4130,27 +4204,27 @@
         <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>143</v>
+        <v>199</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" t="s" s="2">
-        <v>210</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
       </c>
@@ -4174,13 +4248,13 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>211</v>
+        <v>41</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>212</v>
+        <v>41</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -4198,7 +4272,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4213,24 +4287,24 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>41</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4238,7 +4312,7 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
@@ -4253,13 +4327,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4310,10 +4384,10 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>50</v>
@@ -4325,10 +4399,10 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -4342,7 +4416,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4353,7 +4427,7 @@
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>41</v>
@@ -4365,13 +4439,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4422,13 +4496,13 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4440,10 +4514,10 @@
         <v>41</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4452,9 +4526,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4468,7 +4542,7 @@
         <v>43</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4477,17 +4551,15 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>222</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>41</v>
@@ -4536,7 +4608,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4551,24 +4623,24 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>232</v>
+        <v>41</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>233</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4591,13 +4663,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>143</v>
+        <v>52</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>235</v>
+        <v>111</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>236</v>
+        <v>112</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4624,13 +4696,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4648,7 +4720,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>234</v>
+        <v>113</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4660,38 +4732,38 @@
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>238</v>
+        <v>114</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>240</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -4703,15 +4775,17 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
         <v>41</v>
@@ -4760,71 +4834,75 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>241</v>
+        <v>117</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>245</v>
+        <v>114</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>246</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>247</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>41</v>
+        <v>230</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>242</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
+        <v>232</v>
+      </c>
+      <c r="M32" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N32" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
@@ -4872,25 +4950,25 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="AJ32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>251</v>
+        <v>93</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>41</v>
@@ -4899,12 +4977,12 @@
         <v>41</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>252</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4924,19 +5002,21 @@
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>254</v>
+        <v>167</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>255</v>
+        <v>235</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
+      <c r="N33" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
@@ -4960,13 +5040,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>239</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -4984,7 +5064,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>42</v>
@@ -5002,21 +5082,21 @@
         <v>41</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5024,13 +5104,13 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
@@ -5039,13 +5119,13 @@
         <v>41</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5096,10 +5176,10 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>260</v>
+        <v>241</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>50</v>
@@ -5111,24 +5191,24 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5151,13 +5231,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5208,7 +5288,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>265</v>
+        <v>247</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5226,21 +5306,21 @@
         <v>41</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>269</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>270</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="36" hidden="true">
+    <row r="36">
       <c r="A36" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5254,7 +5334,7 @@
         <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5263,15 +5343,17 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>272</v>
+        <v>253</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>273</v>
+        <v>254</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="M36" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5320,7 +5402,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>271</v>
+        <v>252</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5335,24 +5417,24 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>107</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>41</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5363,10 +5445,10 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -5375,13 +5457,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>278</v>
+        <v>167</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5408,13 +5490,13 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>41</v>
+        <v>170</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>41</v>
@@ -5432,13 +5514,13 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5447,24 +5529,24 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>281</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>41</v>
+        <v>265</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>283</v>
+        <v>266</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5475,10 +5557,10 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -5487,17 +5569,15 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>41</v>
@@ -5546,13 +5626,13 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
@@ -5564,21 +5644,21 @@
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>289</v>
+        <v>271</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>41</v>
+        <v>272</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>41</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5601,13 +5681,13 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5658,7 +5738,7 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
@@ -5676,21 +5756,21 @@
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>294</v>
+        <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>41</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>295</v>
+        <v>279</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5710,16 +5790,16 @@
         <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>52</v>
+        <v>280</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>195</v>
+        <v>281</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>196</v>
+        <v>282</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5770,7 +5850,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>197</v>
+        <v>279</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -5782,41 +5862,41 @@
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>198</v>
+        <v>283</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>41</v>
+        <v>285</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -5825,17 +5905,15 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>97</v>
+        <v>287</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>99</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -5884,75 +5962,71 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>201</v>
+        <v>286</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>41</v>
+        <v>289</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>198</v>
+        <v>290</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>41</v>
+        <v>284</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>41</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>96</v>
+        <v>248</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>204</v>
+        <v>292</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>105</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6000,39 +6074,39 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>206</v>
+        <v>291</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>93</v>
+        <v>294</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>41</v>
+        <v>295</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>41</v>
+        <v>296</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6040,10 +6114,10 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
@@ -6055,13 +6129,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="K43" t="s" s="2">
         <v>299</v>
       </c>
-      <c r="K43" t="s" s="2">
+      <c r="L43" t="s" s="2">
         <v>300</v>
-      </c>
-      <c r="L43" t="s" s="2">
-        <v>301</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6112,13 +6186,13 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
@@ -6130,13 +6204,13 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM43" t="s" s="2">
         <v>302</v>
-      </c>
-      <c r="AL43" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
@@ -6155,7 +6229,7 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>41</v>
@@ -6167,13 +6241,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>143</v>
+        <v>304</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6200,13 +6274,13 @@
         <v>41</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>306</v>
+        <v>41</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>307</v>
+        <v>41</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>41</v>
@@ -6230,7 +6304,7 @@
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
@@ -6239,22 +6313,22 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>41</v>
+        <v>307</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>238</v>
+        <v>308</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>308</v>
+        <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>309</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>310</v>
       </c>
@@ -6270,7 +6344,7 @@
         <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>41</v>
@@ -6279,15 +6353,17 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>143</v>
+        <v>311</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>313</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>314</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6312,13 +6388,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>137</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>313</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>314</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -6360,7 +6436,7 @@
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>316</v>
+        <v>41</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>41</v>
@@ -6368,7 +6444,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6379,7 +6455,7 @@
         <v>42</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>41</v>
@@ -6391,13 +6467,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="K46" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>318</v>
-      </c>
-      <c r="K46" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>320</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6448,13 +6524,13 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>41</v>
@@ -6466,13 +6542,13 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>41</v>
@@ -6480,18 +6556,18 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>324</v>
+        <v>41</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>41</v>
@@ -6503,17 +6579,15 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>325</v>
+        <v>52</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>326</v>
+        <v>111</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>328</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>41</v>
@@ -6562,25 +6636,25 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>323</v>
+        <v>113</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>329</v>
+        <v>114</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
@@ -6594,11 +6668,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>41</v>
+        <v>134</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6617,16 +6691,16 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>331</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>332</v>
+        <v>227</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>333</v>
+        <v>228</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>334</v>
+        <v>137</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6676,7 +6750,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>330</v>
+        <v>117</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6688,26 +6762,818 @@
         <v>41</v>
       </c>
       <c r="AI48" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="49" hidden="true">
+      <c r="A49" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B49" s="2"/>
+      <c r="C49" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P49" s="2"/>
+      <c r="Q49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" hidden="true">
+      <c r="A50" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B50" s="2"/>
+      <c r="C50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P50" s="2"/>
+      <c r="Q50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI50" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AJ48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK48" t="s" s="2">
+      <c r="AJ50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="51" hidden="true">
+      <c r="A51" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B51" s="2"/>
+      <c r="C51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P51" s="2"/>
+      <c r="Q51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AN51" t="s" s="2">
         <v>335</v>
       </c>
-      <c r="AL48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM48" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN48" t="s" s="2">
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="B52" s="2"/>
+      <c r="C52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P52" s="2"/>
+      <c r="Q52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="53" hidden="true">
+      <c r="A53" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P53" s="2"/>
+      <c r="Q53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="54" hidden="true">
+      <c r="A54" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="N54" s="2"/>
+      <c r="O54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P54" s="2"/>
+      <c r="Q54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="55" hidden="true">
+      <c r="A55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="B55" s="2"/>
+      <c r="C55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N55" s="2"/>
+      <c r="O55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P55" s="2"/>
+      <c r="Q55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN55" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN48">
+  <autoFilter ref="A1:AN55">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -6717,7 +7583,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI47">
+  <conditionalFormatting sqref="A2:AI54">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-MedRecordDispense.xlsx
+++ b/branches/master/StructureDefinition-MedRecordDispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$63</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1957" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="403">
   <si>
     <t>Path</t>
   </si>
@@ -210,13 +210,190 @@
 </t>
   </si>
   <si>
-    <t>MedicationDispense.implicitRules</t>
+    <t>MedicationDispense.meta.id</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>MedicationDispense.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>MedicationDispense.meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Version specific identifier</t>
+  </si>
+  <si>
+    <t>The version specific identifier, as it appears in the version portion of the URL. This value changes when the resource is created, updated, or deleted.</t>
+  </si>
+  <si>
+    <t>The server assigns this value, and ignores what the client specifies, except in the case that the server is imposing version integrity on updates/deletes.</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t>MedicationDispense.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>When the resource version last changed</t>
+  </si>
+  <si>
+    <t>When the resource last changed - e.g. when the version changed.</t>
+  </si>
+  <si>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>MedicationDispense.meta.source</t>
   </si>
   <si>
     <t xml:space="preserve">uri
 </t>
   </si>
   <si>
+    <t>Identifies where the resource comes from</t>
+  </si>
+  <si>
+    <t>A uri that identifies the source system of the resource. This provides a minimal amount of [Provenance](http://hl7.org/fhir/R4/provenance.html#) information that can be used to track or differentiate the source of information in the resource. The source may identify another FHIR server, document, message, database, etc.</t>
+  </si>
+  <si>
+    <t>In the provenance resource, this corresponds to Provenance.entity.what[x]. The exact use of the source (and the implied Provenance.entity.role) is left to implementer discretion. Only one nominated source is allowed; for additional provenance details, a full Provenance resource should be used. 
+This element can be used to indicate where the current master source of a resource that has a canonical URL if the resource is no longer hosted at the canonical URL.</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>MedicationDispense.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>Profiles this resource claims to conform to</t>
+  </si>
+  <si>
+    <t>A list of profiles (references to [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) resources) that this resource claims to conform to. The URL is a reference to [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url).</t>
+  </si>
+  <si>
+    <t>It is up to the server and/or other infrastructure of policy to determine whether/how these claims are verified and/or updated over time.  The list of profile URLs is a set.</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>MedicationDispense.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Security Labels applied to this resource</t>
+  </si>
+  <si>
+    <t>Security labels applied to this resource. These tags connect specific resources to the overall security policy and infrastructure.</t>
+  </si>
+  <si>
+    <t>The security labels can be updated without changing the stated version of the resource. The list of security labels is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>MedicationDispense.meta.tag</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource</t>
+  </si>
+  <si>
+    <t>Tags applied to this resource. Tags are intended to be used to identify and relate resources to process and workflow, and applications are not required to consider the tags when interpreting the meaning of a resource.</t>
+  </si>
+  <si>
+    <t>The tags can be updated without changing the stated version of the resource. The list of tags is a set. Uniqueness is based the system/code, and version and display are ignored.</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes that represent various types of tags, commonly workflow-related; e.g. "Needs review by Dr. Jones".</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>MedicationDispense.implicitRules</t>
+  </si>
+  <si>
     <t>A set of rules under which this content was created</t>
   </si>
   <si>
@@ -312,28 +489,13 @@
     <t>MedicationDispense.extension</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
     <t>Extension</t>
   </si>
   <si>
     <t>An Extension</t>
   </si>
   <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>treatmentPlan</t>
@@ -365,25 +527,7 @@
     <t>MedicationDispense.extension.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>MedicationDispense.extension.extension</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>MedicationDispense.extension.url</t>
@@ -437,10 +581,6 @@
     <t>MedicationDispense.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
@@ -448,9 +588,6 @@
 Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
   </si>
   <si>
@@ -550,9 +687,6 @@
     <t>Indicates the reason why a dispense was not performed.</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
     <t>A code describing why a dispense was not performed.</t>
   </si>
   <si>
@@ -725,12 +859,6 @@
   </si>
   <si>
     <t>MedicationDispense.performer.extension</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
     <t>MedicationDispense.performer.modifierExtension</t>
@@ -1297,7 +1425,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN55"/>
+  <dimension ref="A1:AN63"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1827,23 +1955,21 @@
         <v>41</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>64</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
         <v>65</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>66</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>67</v>
-      </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>41</v>
@@ -1892,7 +2018,7 @@
         <v>41</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>42</v>
@@ -1904,13 +2030,13 @@
         <v>41</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="s" s="2">
         <v>41</v>
@@ -1924,18 +2050,18 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>41</v>
@@ -1982,28 +2108,28 @@
         <v>41</v>
       </c>
       <c r="W6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA6" t="s" s="2">
         <v>74</v>
       </c>
-      <c r="X6" t="s" s="2">
+      <c r="AB6" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="Y6" t="s" s="2">
+      <c r="AC6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD6" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>41</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>77</v>
@@ -2012,19 +2138,19 @@
         <v>42</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ6" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AL6" t="s" s="2">
         <v>41</v>
@@ -2038,11 +2164,11 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
@@ -2058,7 +2184,7 @@
         <v>41</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>80</v>
@@ -2138,7 +2264,7 @@
         <v>41</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>41</v>
@@ -2152,18 +2278,18 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>87</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G8" t="s" s="2">
         <v>41</v>
@@ -2172,19 +2298,19 @@
         <v>41</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="K8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>89</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
@@ -2234,25 +2360,25 @@
         <v>41</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AF8" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ8" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>41</v>
@@ -2266,7 +2392,7 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
@@ -2277,7 +2403,7 @@
         <v>42</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s" s="2">
         <v>41</v>
@@ -2286,18 +2412,20 @@
         <v>41</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K9" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="L9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>41</v>
@@ -2334,29 +2462,31 @@
         <v>41</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AF9" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH9" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ9" t="s" s="2">
         <v>41</v>
@@ -2374,42 +2504,42 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="B10" t="s" s="2">
-        <v>102</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H10" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J10" t="s" s="2">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="M10" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="M10" t="s" s="2">
+        <v>101</v>
+      </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
         <v>41</v>
@@ -2458,7 +2588,7 @@
         <v>41</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>42</v>
@@ -2467,16 +2597,16 @@
         <v>43</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>106</v>
+        <v>41</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>108</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>41</v>
@@ -2485,12 +2615,12 @@
         <v>41</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>109</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -2501,7 +2631,7 @@
         <v>42</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G11" t="s" s="2">
         <v>41</v>
@@ -2510,18 +2640,20 @@
         <v>41</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>52</v>
+        <v>104</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M11" s="2"/>
+        <v>106</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>107</v>
+      </c>
       <c r="N11" s="2"/>
       <c r="O11" t="s" s="2">
         <v>41</v>
@@ -2546,13 +2678,13 @@
         <v>41</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>41</v>
+        <v>108</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>41</v>
+        <v>110</v>
       </c>
       <c r="Z11" t="s" s="2">
         <v>41</v>
@@ -2570,25 +2702,25 @@
         <v>41</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="AL11" t="s" s="2">
         <v>41</v>
@@ -2602,7 +2734,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2613,7 +2745,7 @@
         <v>42</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>41</v>
@@ -2622,18 +2754,20 @@
         <v>41</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M12" s="2"/>
+        <v>114</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N12" s="2"/>
       <c r="O12" t="s" s="2">
         <v>41</v>
@@ -2658,31 +2792,31 @@
         <v>41</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>41</v>
+        <v>118</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>98</v>
+        <v>41</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>99</v>
+        <v>41</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>42</v>
@@ -2694,7 +2828,7 @@
         <v>41</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
         <v>41</v>
@@ -2714,7 +2848,7 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2722,7 +2856,7 @@
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s" s="2">
         <v>50</v>
@@ -2731,22 +2865,22 @@
         <v>41</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2754,7 +2888,7 @@
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="R13" t="s" s="2">
         <v>41</v>
@@ -2796,10 +2930,10 @@
         <v>41</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>50</v>
@@ -2808,13 +2942,13 @@
         <v>41</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>41</v>
@@ -2828,7 +2962,7 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2836,7 +2970,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>50</v>
@@ -2851,15 +2985,17 @@
         <v>41</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M14" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="M14" t="s" s="2">
+        <v>129</v>
+      </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2884,29 +3020,31 @@
         <v>41</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>41</v>
+        <v>132</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB14" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC14" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>42</v>
@@ -2924,7 +3062,7 @@
         <v>41</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>41</v>
@@ -2938,17 +3076,15 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>124</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>50</v>
@@ -2963,15 +3099,17 @@
         <v>41</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="M15" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -3020,7 +3158,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>42</v>
@@ -3038,7 +3176,7 @@
         <v>41</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>93</v>
+        <v>141</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>41</v>
@@ -3052,11 +3190,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>134</v>
+        <v>143</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3069,26 +3207,24 @@
         <v>41</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
         <v>41</v>
       </c>
@@ -3136,7 +3272,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>42</v>
@@ -3148,13 +3284,13 @@
         <v>41</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="AJ16" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>41</v>
@@ -3166,9 +3302,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3182,7 +3318,7 @@
         <v>43</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>41</v>
@@ -3191,17 +3327,15 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>141</v>
+        <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>41</v>
@@ -3238,19 +3372,17 @@
         <v>41</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>41</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>140</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>42</v>
@@ -3262,29 +3394,31 @@
         <v>41</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>145</v>
+        <v>41</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>146</v>
+        <v>41</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>147</v>
+        <v>41</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>148</v>
+        <v>41</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>41</v>
       </c>
@@ -3293,10 +3427,10 @@
         <v>42</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>41</v>
@@ -3305,13 +3439,13 @@
         <v>41</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3362,7 +3496,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>42</v>
@@ -3371,16 +3505,16 @@
         <v>43</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>41</v>
@@ -3389,12 +3523,12 @@
         <v>41</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>41</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3402,32 +3536,30 @@
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>156</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>158</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -3452,13 +3584,13 @@
         <v>41</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>160</v>
+        <v>41</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>161</v>
+        <v>41</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>41</v>
@@ -3476,10 +3608,10 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>155</v>
+        <v>66</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>50</v>
@@ -3488,19 +3620,19 @@
         <v>41</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>162</v>
+        <v>41</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>163</v>
+        <v>67</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>164</v>
+        <v>41</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>165</v>
+        <v>41</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>41</v>
@@ -3508,7 +3640,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3519,7 +3651,7 @@
         <v>42</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G20" t="s" s="2">
         <v>41</v>
@@ -3531,13 +3663,13 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3564,47 +3696,49 @@
         <v>41</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB20" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>75</v>
+      </c>
       <c r="AC20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>129</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH20" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>174</v>
+        <v>41</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>41</v>
@@ -3616,25 +3750,23 @@
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>41</v>
@@ -3643,22 +3775,24 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>167</v>
       </c>
-      <c r="K21" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>41</v>
+        <v>168</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>41</v>
@@ -3676,13 +3810,13 @@
         <v>41</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>171</v>
+        <v>41</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>172</v>
+        <v>41</v>
       </c>
       <c r="Z21" t="s" s="2">
         <v>41</v>
@@ -3700,10 +3834,10 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>50</v>
@@ -3712,13 +3846,13 @@
         <v>41</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>173</v>
+        <v>41</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>41</v>
@@ -3732,7 +3866,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3740,7 +3874,7 @@
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F22" t="s" s="2">
         <v>50</v>
@@ -3755,17 +3889,15 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>178</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>179</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>41</v>
@@ -3790,28 +3922,26 @@
         <v>41</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>180</v>
+        <v>41</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="s" s="2">
         <v>176</v>
@@ -3832,7 +3962,7 @@
         <v>41</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>182</v>
+        <v>149</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>41</v>
@@ -3846,9 +3976,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>41</v>
       </c>
@@ -3866,20 +3998,18 @@
         <v>41</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>41</v>
@@ -3904,32 +4034,34 @@
         <v>41</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB23" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>129</v>
+        <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>50</v>
@@ -3941,60 +4073,60 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B24" t="s" s="2">
-        <v>195</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4018,13 +4150,13 @@
         <v>41</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>188</v>
+        <v>41</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>41</v>
@@ -4045,40 +4177,38 @@
         <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>190</v>
+        <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>193</v>
+        <v>41</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>194</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>183</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4087,7 +4217,7 @@
         <v>42</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>51</v>
@@ -4096,19 +4226,19 @@
         <v>41</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -4158,13 +4288,13 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>41</v>
@@ -4173,24 +4303,24 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="AK25" t="s" s="2">
+      <c r="AL25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="AL25" t="s" s="2">
+      <c r="AM25" t="s" s="2">
         <v>192</v>
       </c>
-      <c r="AM25" t="s" s="2">
+      <c r="AN25" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" hidden="true">
+      <c r="A26" t="s" s="2">
         <v>193</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4201,29 +4331,27 @@
         <v>42</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4272,13 +4400,13 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>41</v>
@@ -4287,24 +4415,24 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>206</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4312,30 +4440,32 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>208</v>
+        <v>126</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>201</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4360,13 +4490,13 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>41</v>
+        <v>203</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>41</v>
+        <v>204</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>41</v>
+        <v>205</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4384,10 +4514,10 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>50</v>
@@ -4399,16 +4529,16 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>41</v>
+        <v>208</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>41</v>
+        <v>209</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
@@ -4416,7 +4546,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4427,7 +4557,7 @@
         <v>42</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>41</v>
@@ -4439,13 +4569,13 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4472,37 +4602,35 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB28" s="2"/>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>41</v>
@@ -4511,13 +4639,13 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>41</v>
+        <v>216</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>217</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>41</v>
@@ -4528,9 +4656,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="C29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4539,7 +4669,7 @@
         <v>42</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>51</v>
@@ -4551,13 +4681,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4584,13 +4714,13 @@
         <v>41</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>41</v>
+        <v>214</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>41</v>
+        <v>215</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
@@ -4608,13 +4738,13 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>41</v>
@@ -4623,10 +4753,10 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
@@ -4640,7 +4770,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4663,15 +4793,17 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>52</v>
+        <v>211</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>111</v>
+        <v>220</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="M30" s="2"/>
+        <v>221</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4696,13 +4828,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>41</v>
+        <v>223</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>41</v>
+        <v>224</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4720,7 +4852,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>113</v>
+        <v>219</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4732,13 +4864,13 @@
         <v>41</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>114</v>
+        <v>225</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -4756,14 +4888,14 @@
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>41</v>
@@ -4772,19 +4904,19 @@
         <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>95</v>
+        <v>227</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>137</v>
+        <v>230</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4810,99 +4942,97 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>117</v>
+        <v>226</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>114</v>
+        <v>234</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>41</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>238</v>
+      </c>
       <c r="C32" t="s" s="2">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>95</v>
+        <v>211</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
         <v>41</v>
       </c>
@@ -4926,13 +5056,13 @@
         <v>41</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>41</v>
+        <v>232</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -4950,41 +5080,43 @@
         <v>41</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="AK32" t="s" s="2">
-        <v>93</v>
+        <v>234</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>41</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>226</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>239</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>41</v>
       </c>
@@ -4996,27 +5128,27 @@
         <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>167</v>
+        <v>240</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M33" s="2"/>
-      <c r="N33" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>41</v>
       </c>
@@ -5040,13 +5172,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>238</v>
+        <v>41</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>239</v>
+        <v>41</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5064,10 +5196,10 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>50</v>
@@ -5079,22 +5211,22 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>41</v>
+        <v>235</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>41</v>
+        <v>236</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>41</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>241</v>
       </c>
@@ -5104,19 +5236,19 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>242</v>
@@ -5127,7 +5259,9 @@
       <c r="L34" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="M34" s="2"/>
+      <c r="M34" t="s" s="2">
+        <v>245</v>
+      </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>41</v>
@@ -5179,7 +5313,7 @@
         <v>241</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>50</v>
@@ -5191,24 +5325,24 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>41</v>
+        <v>248</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>41</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5231,13 +5365,13 @@
         <v>41</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
@@ -5288,7 +5422,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5303,10 +5437,10 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>41</v>
+        <v>254</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>41</v>
@@ -5318,9 +5452,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5334,7 +5468,7 @@
         <v>43</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>41</v>
@@ -5343,17 +5477,15 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>41</v>
@@ -5402,7 +5534,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5417,24 +5549,24 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>107</v>
+        <v>41</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>41</v>
+        <v>261</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>258</v>
+        <v>41</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>259</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5445,7 +5577,7 @@
         <v>42</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>51</v>
@@ -5457,13 +5589,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>167</v>
+        <v>263</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5490,37 +5622,37 @@
         <v>41</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="X37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE37" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="Y37" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="Z37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD37" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE37" t="s" s="2">
-        <v>260</v>
-      </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>41</v>
@@ -5529,24 +5661,24 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>41</v>
+        <v>266</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>265</v>
+        <v>41</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>266</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5560,7 +5692,7 @@
         <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -5569,13 +5701,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>268</v>
+        <v>52</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>269</v>
+        <v>64</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>270</v>
+        <v>65</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5626,7 +5758,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>267</v>
+        <v>66</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5638,38 +5770,38 @@
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="AJ38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>271</v>
+        <v>67</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>272</v>
+        <v>41</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>273</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -5681,15 +5813,17 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>268</v>
+        <v>70</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>275</v>
+        <v>71</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>72</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5738,25 +5872,25 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>277</v>
+        <v>67</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>41</v>
@@ -5765,44 +5899,48 @@
         <v>41</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>278</v>
+        <v>41</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>41</v>
+        <v>271</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I40" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>280</v>
+        <v>70</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+        <v>273</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N40" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>41</v>
       </c>
@@ -5850,39 +5988,39 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5896,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>41</v>
@@ -5905,16 +6043,18 @@
         <v>41</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>280</v>
+        <v>211</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+      <c r="N41" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
       </c>
@@ -5938,13 +6078,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>41</v>
+        <v>279</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>41</v>
+        <v>280</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -5962,7 +6102,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -5977,24 +6117,24 @@
         <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>289</v>
+        <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>284</v>
+        <v>41</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>285</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6002,7 +6142,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>50</v>
@@ -6017,13 +6157,13 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
@@ -6074,10 +6214,10 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>50</v>
@@ -6089,24 +6229,24 @@
         <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>41</v>
+        <v>286</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>295</v>
+        <v>41</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>296</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6117,7 +6257,7 @@
         <v>42</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>41</v>
@@ -6129,13 +6269,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6186,13 +6326,13 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>41</v>
@@ -6204,21 +6344,21 @@
         <v>41</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>302</v>
+        <v>41</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6232,7 +6372,7 @@
         <v>43</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -6241,15 +6381,17 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6298,7 +6440,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6313,24 +6455,24 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>307</v>
+        <v>159</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>41</v>
+        <v>299</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6341,7 +6483,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>51</v>
@@ -6353,17 +6495,15 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>311</v>
+        <v>211</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>314</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6388,13 +6528,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>41</v>
+        <v>304</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -6412,13 +6552,13 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
@@ -6430,21 +6570,21 @@
         <v>41</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>41</v>
+        <v>307</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6458,7 +6598,7 @@
         <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>41</v>
@@ -6467,13 +6607,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>220</v>
+        <v>309</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6524,7 +6664,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6542,21 +6682,21 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>41</v>
+        <v>314</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6579,13 +6719,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>52</v>
+        <v>309</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>112</v>
+        <v>317</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6636,7 +6776,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>113</v>
+        <v>315</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6648,13 +6788,13 @@
         <v>41</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>114</v>
+        <v>318</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
@@ -6663,23 +6803,23 @@
         <v>41</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>41</v>
+        <v>319</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>134</v>
+        <v>41</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>41</v>
@@ -6688,20 +6828,18 @@
         <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>227</v>
+        <v>322</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>323</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>41</v>
@@ -6750,75 +6888,71 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>117</v>
+        <v>320</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI48" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>114</v>
+        <v>324</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>41</v>
+        <v>326</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>230</v>
+        <v>41</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>321</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>231</v>
+        <v>328</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>41</v>
       </c>
@@ -6866,39 +7000,39 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>233</v>
+        <v>327</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>101</v>
+        <v>62</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>41</v>
+        <v>330</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>93</v>
+        <v>331</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>41</v>
+        <v>325</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>41</v>
+        <v>326</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6906,7 +7040,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>50</v>
@@ -6921,13 +7055,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>325</v>
+        <v>289</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6978,10 +7112,10 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>50</v>
@@ -6996,21 +7130,21 @@
         <v>41</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>328</v>
+        <v>335</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>41</v>
+        <v>337</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7021,7 +7155,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>41</v>
@@ -7033,13 +7167,13 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>167</v>
+        <v>339</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7066,13 +7200,13 @@
         <v>41</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>332</v>
+        <v>41</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>333</v>
+        <v>41</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>41</v>
@@ -7090,13 +7224,13 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
@@ -7108,21 +7242,21 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>264</v>
+        <v>342</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>335</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7136,7 +7270,7 @@
         <v>43</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>41</v>
@@ -7145,13 +7279,13 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>167</v>
+        <v>345</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7178,13 +7312,13 @@
         <v>41</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>170</v>
+        <v>41</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>339</v>
+        <v>41</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>340</v>
+        <v>41</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>41</v>
@@ -7202,7 +7336,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7217,24 +7351,24 @@
         <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>41</v>
+        <v>348</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>342</v>
+        <v>41</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>41</v>
+        <v>350</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7248,7 +7382,7 @@
         <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -7257,15 +7391,17 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>355</v>
+      </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7314,7 +7450,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7332,13 +7468,13 @@
         <v>41</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>41</v>
@@ -7346,18 +7482,18 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
-        <v>350</v>
+        <v>41</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>41</v>
@@ -7369,17 +7505,15 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>351</v>
+        <v>263</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>354</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="M54" s="2"/>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7428,13 +7562,13 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
@@ -7446,13 +7580,13 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>41</v>
+        <v>361</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7460,7 +7594,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7471,7 +7605,7 @@
         <v>42</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>41</v>
@@ -7483,17 +7617,15 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>357</v>
+        <v>52</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>358</v>
+        <v>64</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>360</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>41</v>
@@ -7542,38 +7674,944 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>356</v>
+        <v>66</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="56" hidden="true">
+      <c r="A56" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B56" s="2"/>
+      <c r="C56" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F56" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="AH55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI55" t="s" s="2">
+      <c r="G56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N56" s="2"/>
+      <c r="O56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P56" s="2"/>
+      <c r="Q56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="57" hidden="true">
+      <c r="A57" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P57" s="2"/>
+      <c r="Q57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>149</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="58" hidden="true">
+      <c r="A58" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P58" s="2"/>
+      <c r="Q58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI58" t="s" s="2">
         <v>62</v>
       </c>
-      <c r="AJ55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN55" t="s" s="2">
+      <c r="AJ58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" hidden="true">
+      <c r="A59" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="B59" s="2"/>
+      <c r="C59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P59" s="2"/>
+      <c r="Q59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B60" s="2"/>
+      <c r="C60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P60" s="2"/>
+      <c r="Q60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="B61" s="2"/>
+      <c r="C61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P61" s="2"/>
+      <c r="Q61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="62" hidden="true">
+      <c r="A62" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="B62" s="2"/>
+      <c r="C62" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="N62" s="2"/>
+      <c r="O62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P62" s="2"/>
+      <c r="Q62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="63" hidden="true">
+      <c r="A63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B63" s="2"/>
+      <c r="C63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N63" s="2"/>
+      <c r="O63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P63" s="2"/>
+      <c r="Q63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN55">
+  <autoFilter ref="A1:AN63">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -7583,7 +8621,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI54">
+  <conditionalFormatting sqref="A2:AI62">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-MedRecordDispense.xlsx
+++ b/branches/master/StructureDefinition-MedRecordDispense.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AN$64</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="403">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="405">
   <si>
     <t>Path</t>
   </si>
@@ -575,6 +575,13 @@
   </si>
   <si>
     <t xml:space="preserve">Reference(CarePlan)
+</t>
+  </si>
+  <si>
+    <t>basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
   </si>
   <si>
@@ -1425,7 +1432,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN63"/>
+  <dimension ref="A1:AN64"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -4088,45 +4095,43 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
+        <v>150</v>
+      </c>
+      <c r="B24" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>70</v>
+        <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>180</v>
+        <v>151</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>181</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>182</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>41</v>
       </c>
@@ -4174,7 +4179,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>42</v>
@@ -4183,7 +4188,7 @@
         <v>43</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>41</v>
+        <v>158</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>78</v>
@@ -4192,7 +4197,7 @@
         <v>41</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>41</v>
@@ -4204,13 +4209,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4220,27 +4225,29 @@
         <v>43</v>
       </c>
       <c r="G25" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H25" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="I25" t="s" s="2">
         <v>41</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>185</v>
+        <v>70</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>73</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
       </c>
@@ -4288,7 +4295,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4300,27 +4307,27 @@
         <v>41</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>189</v>
+        <v>41</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>190</v>
+        <v>149</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>191</v>
+        <v>41</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>192</v>
+        <v>41</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4334,7 +4341,7 @@
         <v>43</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H26" t="s" s="2">
         <v>41</v>
@@ -4343,15 +4350,17 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M26" s="2"/>
+        <v>189</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>190</v>
+      </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -4400,7 +4409,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4415,24 +4424,24 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>41</v>
+        <v>193</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>41</v>
+        <v>194</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4440,32 +4449,30 @@
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>202</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>41</v>
@@ -4490,13 +4497,13 @@
         <v>41</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>203</v>
+        <v>41</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>204</v>
+        <v>41</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>205</v>
+        <v>41</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>41</v>
@@ -4514,13 +4521,13 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>41</v>
@@ -4529,24 +4536,24 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>209</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4554,30 +4561,32 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>211</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>203</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -4602,32 +4611,34 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>116</v>
+        <v>205</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB28" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC28" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>50</v>
@@ -4639,28 +4650,26 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>41</v>
+        <v>210</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>41</v>
+        <v>211</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="B29" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
         <v>41</v>
       </c>
@@ -4672,7 +4681,7 @@
         <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>41</v>
@@ -4681,13 +4690,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4717,28 +4726,26 @@
         <v>116</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB29" s="2"/>
       <c r="AC29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4753,10 +4760,10 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
@@ -4768,11 +4775,13 @@
         <v>41</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>212</v>
+      </c>
+      <c r="B30" t="s" s="2">
+        <v>220</v>
+      </c>
       <c r="C30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4784,7 +4793,7 @@
         <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>41</v>
@@ -4793,17 +4802,15 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4828,13 +4835,13 @@
         <v>41</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4852,7 +4859,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4867,10 +4874,10 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>41</v>
+        <v>218</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -4884,7 +4891,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4892,7 +4899,7 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>50</v>
@@ -4904,19 +4911,19 @@
         <v>41</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4942,32 +4949,34 @@
         <v>41</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="AB31" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="AC31" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>175</v>
+        <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>50</v>
@@ -4979,40 +4988,38 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>235</v>
+        <v>41</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>236</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>237</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>238</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F32" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>41</v>
@@ -5021,16 +5028,16 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5059,28 +5066,26 @@
         <v>116</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>41</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB32" s="2"/>
       <c r="AC32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>41</v>
+        <v>175</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>50</v>
@@ -5095,27 +5100,27 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>41</v>
@@ -5137,16 +5142,16 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5172,13 +5177,13 @@
         <v>41</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>41</v>
+        <v>233</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5196,7 +5201,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>50</v>
@@ -5211,26 +5216,28 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="B34" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
         <v>41</v>
       </c>
@@ -5254,13 +5261,13 @@
         <v>242</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5310,10 +5317,10 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>50</v>
@@ -5325,24 +5332,24 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>41</v>
+        <v>238</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5356,24 +5363,26 @@
         <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>247</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>41</v>
@@ -5422,7 +5431,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5437,24 +5446,24 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>41</v>
+        <v>250</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>41</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5465,7 +5474,7 @@
         <v>42</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>41</v>
@@ -5477,13 +5486,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5534,13 +5543,13 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>41</v>
@@ -5549,13 +5558,13 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>41</v>
+        <v>256</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>261</v>
+        <v>41</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>41</v>
@@ -5564,9 +5573,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5580,7 +5589,7 @@
         <v>43</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>41</v>
@@ -5589,13 +5598,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5646,7 +5655,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5661,13 +5670,13 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>266</v>
+        <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>41</v>
+        <v>263</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5676,9 +5685,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5689,10 +5698,10 @@
         <v>42</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>41</v>
@@ -5701,13 +5710,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>52</v>
+        <v>265</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>64</v>
+        <v>266</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>65</v>
+        <v>267</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5758,25 +5767,25 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>41</v>
+        <v>268</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>67</v>
+        <v>269</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -5790,18 +5799,18 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>41</v>
@@ -5813,17 +5822,15 @@
         <v>41</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>41</v>
@@ -5872,19 +5879,19 @@
         <v>41</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AJ39" t="s" s="2">
         <v>41</v>
@@ -5904,11 +5911,11 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
@@ -5921,26 +5928,24 @@
         <v>41</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J40" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="M40" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N40" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>41</v>
       </c>
@@ -5988,7 +5993,7 @@
         <v>41</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>42</v>
@@ -6006,7 +6011,7 @@
         <v>41</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>41</v>
@@ -6020,40 +6025,42 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>211</v>
+        <v>70</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>73</v>
+      </c>
       <c r="N41" t="s" s="2">
-        <v>278</v>
+        <v>184</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6078,13 +6085,13 @@
         <v>41</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>279</v>
+        <v>41</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>280</v>
+        <v>41</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>41</v>
@@ -6102,25 +6109,25 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>281</v>
+        <v>149</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>41</v>
@@ -6134,7 +6141,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6142,7 +6149,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>50</v>
@@ -6157,16 +6164,18 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>283</v>
+        <v>213</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
+      <c r="N42" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
       </c>
@@ -6190,13 +6199,13 @@
         <v>41</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>41</v>
@@ -6214,10 +6223,10 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>50</v>
@@ -6229,10 +6238,10 @@
         <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>286</v>
+        <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6246,7 +6255,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6254,7 +6263,7 @@
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F43" t="s" s="2">
         <v>50</v>
@@ -6269,13 +6278,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6326,10 +6335,10 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>50</v>
@@ -6341,10 +6350,10 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>41</v>
+        <v>288</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6356,9 +6365,9 @@
         <v>41</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6369,10 +6378,10 @@
         <v>42</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>41</v>
@@ -6381,17 +6390,15 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>296</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>41</v>
@@ -6440,13 +6447,13 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>41</v>
@@ -6455,24 +6462,24 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>159</v>
+        <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>299</v>
+        <v>41</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>300</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6483,7 +6490,7 @@
         <v>42</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>51</v>
@@ -6495,15 +6502,17 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>211</v>
+        <v>296</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>41</v>
@@ -6528,13 +6537,13 @@
         <v>41</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>303</v>
+        <v>41</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>304</v>
+        <v>41</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>41</v>
@@ -6552,13 +6561,13 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>41</v>
@@ -6567,24 +6576,24 @@
         <v>62</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>307</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6607,13 +6616,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>309</v>
+        <v>213</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6640,13 +6649,13 @@
         <v>41</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>41</v>
+        <v>305</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>41</v>
+        <v>306</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>41</v>
@@ -6664,7 +6673,7 @@
         <v>41</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6682,21 +6691,21 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6710,7 +6719,7 @@
         <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>41</v>
@@ -6719,13 +6728,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6776,7 +6785,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6794,21 +6803,21 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>41</v>
+        <v>315</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6828,16 +6837,16 @@
         <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6888,7 +6897,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6906,21 +6915,21 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>325</v>
+        <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6934,22 +6943,22 @@
         <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I49" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H49" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="I49" t="s" s="2">
-        <v>41</v>
-      </c>
       <c r="J49" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7000,7 +7009,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7015,24 +7024,24 @@
         <v>62</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>330</v>
+        <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7046,7 +7055,7 @@
         <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>41</v>
@@ -7055,13 +7064,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>289</v>
+        <v>323</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7112,7 +7121,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7127,24 +7136,24 @@
         <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>41</v>
+        <v>332</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>337</v>
+        <v>328</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7155,7 +7164,7 @@
         <v>42</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>41</v>
@@ -7167,13 +7176,13 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>339</v>
+        <v>291</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7224,13 +7233,13 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>41</v>
@@ -7242,21 +7251,21 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>41</v>
+        <v>339</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7279,13 +7288,13 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7336,7 +7345,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7351,24 +7360,24 @@
         <v>62</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>348</v>
+        <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>41</v>
+        <v>345</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>350</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7382,7 +7391,7 @@
         <v>43</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>41</v>
@@ -7391,17 +7400,15 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>355</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>41</v>
@@ -7450,7 +7457,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7465,10 +7472,10 @@
         <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>41</v>
+        <v>350</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
@@ -7477,12 +7484,12 @@
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>41</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7493,10 +7500,10 @@
         <v>42</v>
       </c>
       <c r="F54" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>41</v>
@@ -7505,15 +7512,17 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>263</v>
+        <v>354</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>359</v>
-      </c>
-      <c r="M54" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>357</v>
+      </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>41</v>
@@ -7562,13 +7571,13 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>41</v>
@@ -7580,13 +7589,13 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>361</v>
+        <v>41</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>41</v>
@@ -7594,7 +7603,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7617,13 +7626,13 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>52</v>
+        <v>265</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>64</v>
+        <v>360</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>65</v>
+        <v>361</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7674,7 +7683,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>66</v>
+        <v>359</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7686,19 +7695,19 @@
         <v>41</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="AJ55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>67</v>
+        <v>362</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>41</v>
+        <v>363</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -7706,18 +7715,18 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>41</v>
@@ -7729,17 +7738,15 @@
         <v>41</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>41</v>
@@ -7788,19 +7795,19 @@
         <v>41</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>78</v>
+        <v>41</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>41</v>
@@ -7820,11 +7827,11 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>271</v>
+        <v>69</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
@@ -7837,26 +7844,24 @@
         <v>41</v>
       </c>
       <c r="H57" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J57" t="s" s="2">
         <v>70</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>272</v>
+        <v>71</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>273</v>
+        <v>72</v>
       </c>
       <c r="M57" t="s" s="2">
         <v>73</v>
       </c>
-      <c r="N57" t="s" s="2">
-        <v>182</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>41</v>
       </c>
@@ -7904,7 +7909,7 @@
         <v>41</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>274</v>
+        <v>77</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>42</v>
@@ -7922,7 +7927,7 @@
         <v>41</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>149</v>
+        <v>67</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>41</v>
@@ -7936,39 +7941,43 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>41</v>
+        <v>273</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>366</v>
+        <v>70</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>367</v>
+        <v>274</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>184</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>41</v>
       </c>
@@ -8016,25 +8025,25 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>369</v>
+        <v>149</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>41</v>
@@ -8048,7 +8057,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8056,7 +8065,7 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="F59" t="s" s="2">
         <v>50</v>
@@ -8071,13 +8080,13 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>211</v>
+        <v>368</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8104,13 +8113,13 @@
         <v>41</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>116</v>
+        <v>41</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>373</v>
+        <v>41</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>374</v>
+        <v>41</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>41</v>
@@ -8128,10 +8137,10 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>50</v>
@@ -8146,21 +8155,21 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>305</v>
+        <v>371</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>375</v>
+        <v>41</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>376</v>
+        <v>41</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8171,10 +8180,10 @@
         <v>42</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>41</v>
@@ -8183,13 +8192,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8219,10 +8228,10 @@
         <v>116</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>41</v>
@@ -8240,13 +8249,13 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>41</v>
@@ -8258,21 +8267,21 @@
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>382</v>
+        <v>307</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>41</v>
+        <v>378</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8286,7 +8295,7 @@
         <v>43</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>41</v>
@@ -8295,13 +8304,13 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>385</v>
+        <v>213</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8328,13 +8337,13 @@
         <v>41</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>41</v>
+        <v>116</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>41</v>
+        <v>382</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>41</v>
+        <v>383</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
@@ -8352,7 +8361,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8370,13 +8379,13 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -8384,11 +8393,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>391</v>
+        <v>41</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8407,17 +8416,15 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>394</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>395</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>41</v>
@@ -8466,7 +8473,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8484,13 +8491,13 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>41</v>
+        <v>391</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -8498,11 +8505,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>41</v>
+        <v>393</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8521,16 +8528,16 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8580,7 +8587,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8598,20 +8605,134 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN63" t="s" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="64" hidden="true">
+      <c r="A64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B64" s="2"/>
+      <c r="C64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="F64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="AL63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AN63" t="s" s="2">
+      <c r="M64" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P64" s="2"/>
+      <c r="Q64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>41</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN63">
+  <autoFilter ref="A1:AN64">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -8621,7 +8742,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI62">
+  <conditionalFormatting sqref="A2:AI63">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/branches/master/StructureDefinition-MedRecordDispense.xlsx
+++ b/branches/master/StructureDefinition-MedRecordDispense.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2280" uniqueCount="407">
   <si>
     <t>Path</t>
   </si>
@@ -583,6 +583,12 @@
   <si>
     <t xml:space="preserve">Extension {https://www.hl7belgium.be/fhir/StructureDefinition/related-tl}
 </t>
+  </si>
+  <si>
+    <t>Based On Extension</t>
+  </si>
+  <si>
+    <t>Extension for connecting several resources to a single Treatment Line</t>
   </si>
   <si>
     <t>MedicationDispense.modifierExtension</t>
@@ -4125,10 +4131,10 @@
         <v>180</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>152</v>
+        <v>182</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4211,7 +4217,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4237,16 +4243,16 @@
         <v>70</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>73</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O25" t="s" s="2">
         <v>41</v>
@@ -4295,7 +4301,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>42</v>
@@ -4327,7 +4333,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4350,16 +4356,16 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4409,7 +4415,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>42</v>
@@ -4424,16 +4430,16 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>41</v>
@@ -4441,7 +4447,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4464,13 +4470,13 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4521,7 +4527,7 @@
         <v>41</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>42</v>
@@ -4536,10 +4542,10 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>41</v>
@@ -4553,7 +4559,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4579,13 +4585,13 @@
         <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
@@ -4611,13 +4617,13 @@
         <v>41</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>41</v>
@@ -4635,7 +4641,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>50</v>
@@ -4650,16 +4656,16 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>41</v>
@@ -4667,7 +4673,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4690,13 +4696,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4726,10 +4732,10 @@
         <v>116</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>41</v>
@@ -4745,7 +4751,7 @@
         <v>175</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>42</v>
@@ -4760,10 +4766,10 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>41</v>
@@ -4777,10 +4783,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C30" t="s" s="2">
         <v>41</v>
@@ -4802,13 +4808,13 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
@@ -4838,10 +4844,10 @@
         <v>116</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4859,7 +4865,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>42</v>
@@ -4874,10 +4880,10 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>41</v>
@@ -4891,7 +4897,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4914,16 +4920,16 @@
         <v>41</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4952,10 +4958,10 @@
         <v>130</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>41</v>
@@ -4973,7 +4979,7 @@
         <v>41</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>42</v>
@@ -4991,7 +4997,7 @@
         <v>41</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>41</v>
@@ -5005,7 +5011,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5028,16 +5034,16 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -5066,10 +5072,10 @@
         <v>116</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>41</v>
@@ -5085,7 +5091,7 @@
         <v>175</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>50</v>
@@ -5100,27 +5106,27 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>41</v>
@@ -5142,16 +5148,16 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
@@ -5180,10 +5186,10 @@
         <v>116</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>41</v>
@@ -5201,7 +5207,7 @@
         <v>41</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>50</v>
@@ -5216,27 +5222,27 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>41</v>
@@ -5258,16 +5264,16 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
@@ -5317,7 +5323,7 @@
         <v>41</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>50</v>
@@ -5332,24 +5338,24 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5372,16 +5378,16 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5431,7 +5437,7 @@
         <v>41</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>42</v>
@@ -5446,24 +5452,24 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5486,13 +5492,13 @@
         <v>41</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5543,7 +5549,7 @@
         <v>41</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>42</v>
@@ -5558,10 +5564,10 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>41</v>
@@ -5575,7 +5581,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5598,13 +5604,13 @@
         <v>41</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5655,7 +5661,7 @@
         <v>41</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>42</v>
@@ -5673,10 +5679,10 @@
         <v>41</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>41</v>
@@ -5687,7 +5693,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5710,13 +5716,13 @@
         <v>41</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5767,7 +5773,7 @@
         <v>41</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>42</v>
@@ -5782,10 +5788,10 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>41</v>
@@ -5799,7 +5805,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5911,7 +5917,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -6025,11 +6031,11 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
@@ -6051,16 +6057,16 @@
         <v>70</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M41" t="s" s="2">
         <v>73</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O41" t="s" s="2">
         <v>41</v>
@@ -6109,7 +6115,7 @@
         <v>41</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>42</v>
@@ -6141,7 +6147,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6164,17 +6170,17 @@
         <v>41</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M42" s="2"/>
       <c r="N42" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>41</v>
@@ -6202,10 +6208,10 @@
         <v>116</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>41</v>
@@ -6223,7 +6229,7 @@
         <v>41</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>42</v>
@@ -6241,7 +6247,7 @@
         <v>41</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>41</v>
@@ -6255,7 +6261,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6278,13 +6284,13 @@
         <v>41</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
@@ -6335,7 +6341,7 @@
         <v>41</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>50</v>
@@ -6350,10 +6356,10 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>41</v>
@@ -6367,7 +6373,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6390,13 +6396,13 @@
         <v>41</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6447,7 +6453,7 @@
         <v>41</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>42</v>
@@ -6465,7 +6471,7 @@
         <v>41</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>41</v>
@@ -6479,7 +6485,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6502,16 +6508,16 @@
         <v>41</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6561,7 +6567,7 @@
         <v>41</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>42</v>
@@ -6579,21 +6585,21 @@
         <v>159</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6616,13 +6622,13 @@
         <v>41</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6652,28 +6658,28 @@
         <v>116</v>
       </c>
       <c r="X46" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE46" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="Y46" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="Z46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>303</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>42</v>
@@ -6691,21 +6697,21 @@
         <v>41</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6728,13 +6734,13 @@
         <v>41</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6785,7 +6791,7 @@
         <v>41</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>42</v>
@@ -6803,21 +6809,21 @@
         <v>41</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6840,13 +6846,13 @@
         <v>41</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6897,7 +6903,7 @@
         <v>41</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>42</v>
@@ -6915,7 +6921,7 @@
         <v>41</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>41</v>
@@ -6924,12 +6930,12 @@
         <v>41</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6952,13 +6958,13 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -7009,7 +7015,7 @@
         <v>41</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>42</v>
@@ -7027,21 +7033,21 @@
         <v>41</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -7064,13 +7070,13 @@
         <v>41</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7121,7 +7127,7 @@
         <v>41</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>42</v>
@@ -7136,24 +7142,24 @@
         <v>62</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7176,13 +7182,13 @@
         <v>41</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7233,7 +7239,7 @@
         <v>41</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>42</v>
@@ -7251,21 +7257,21 @@
         <v>41</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7288,13 +7294,13 @@
         <v>41</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7345,7 +7351,7 @@
         <v>41</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>42</v>
@@ -7363,13 +7369,13 @@
         <v>41</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>41</v>
@@ -7377,7 +7383,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7400,13 +7406,13 @@
         <v>41</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7457,7 +7463,7 @@
         <v>41</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>42</v>
@@ -7472,10 +7478,10 @@
         <v>62</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>41</v>
@@ -7484,12 +7490,12 @@
         <v>41</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7512,16 +7518,16 @@
         <v>41</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
@@ -7571,7 +7577,7 @@
         <v>41</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>42</v>
@@ -7589,7 +7595,7 @@
         <v>41</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>41</v>
@@ -7603,7 +7609,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7626,13 +7632,13 @@
         <v>41</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7683,7 +7689,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>42</v>
@@ -7701,13 +7707,13 @@
         <v>41</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>41</v>
@@ -7715,7 +7721,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7827,7 +7833,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7941,11 +7947,11 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7967,16 +7973,16 @@
         <v>70</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>73</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="O58" t="s" s="2">
         <v>41</v>
@@ -8025,7 +8031,7 @@
         <v>41</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>42</v>
@@ -8057,7 +8063,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -8080,13 +8086,13 @@
         <v>41</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8137,7 +8143,7 @@
         <v>41</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>50</v>
@@ -8155,7 +8161,7 @@
         <v>41</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>41</v>
@@ -8169,7 +8175,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8192,13 +8198,13 @@
         <v>41</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8228,10 +8234,10 @@
         <v>116</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>41</v>
@@ -8249,7 +8255,7 @@
         <v>41</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>42</v>
@@ -8267,21 +8273,21 @@
         <v>41</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8304,13 +8310,13 @@
         <v>41</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8340,10 +8346,10 @@
         <v>116</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>41</v>
@@ -8361,7 +8367,7 @@
         <v>41</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>42</v>
@@ -8379,13 +8385,13 @@
         <v>41</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>41</v>
@@ -8393,7 +8399,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8416,13 +8422,13 @@
         <v>41</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8473,7 +8479,7 @@
         <v>41</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>42</v>
@@ -8491,13 +8497,13 @@
         <v>41</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>41</v>
@@ -8505,11 +8511,11 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
@@ -8528,16 +8534,16 @@
         <v>41</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
@@ -8587,7 +8593,7 @@
         <v>41</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>42</v>
@@ -8605,7 +8611,7 @@
         <v>41</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>41</v>
@@ -8619,7 +8625,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8642,16 +8648,16 @@
         <v>41</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
@@ -8701,7 +8707,7 @@
         <v>41</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>42</v>
@@ -8719,7 +8725,7 @@
         <v>41</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>41</v>
